--- a/dataExl.xlsx
+++ b/dataExl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="441">
   <si>
     <t>figi</t>
   </si>
@@ -106,6 +106,9 @@
     <t>BBG00ZHCX1X2</t>
   </si>
   <si>
+    <t>TCS00A0JPP37</t>
+  </si>
+  <si>
     <t>BBG004S689R0</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>BBG00R4Z2NT4</t>
   </si>
   <si>
+    <t>TCS102B9M1L3</t>
+  </si>
+  <si>
     <t>BBG000VQWH86</t>
   </si>
   <si>
@@ -442,6 +448,9 @@
     <t>BBG004731354</t>
   </si>
   <si>
+    <t>TCS00A1002V2</t>
+  </si>
+  <si>
     <t>BBG004S68FR6</t>
   </si>
   <si>
@@ -532,6 +541,9 @@
     <t>FIXP</t>
   </si>
   <si>
+    <t>UGLD</t>
+  </si>
+  <si>
     <t>PHOR</t>
   </si>
   <si>
@@ -562,6 +574,9 @@
     <t>VEON-RX</t>
   </si>
   <si>
+    <t>ELTZ</t>
+  </si>
+  <si>
     <t>BLNG</t>
   </si>
   <si>
@@ -868,6 +883,9 @@
     <t>ROSN</t>
   </si>
   <si>
+    <t>EUTR</t>
+  </si>
+  <si>
     <t>MTLRP</t>
   </si>
   <si>
@@ -958,6 +976,9 @@
     <t>Fix Price Group</t>
   </si>
   <si>
+    <t>Южуралзолото ГК</t>
+  </si>
+  <si>
     <t>ФосАгро</t>
   </si>
   <si>
@@ -988,6 +1009,9 @@
     <t>VEON</t>
   </si>
   <si>
+    <t>Электроцинк</t>
+  </si>
+  <si>
     <t>Белон</t>
   </si>
   <si>
@@ -1289,6 +1313,9 @@
   </si>
   <si>
     <t>Роснефть</t>
+  </si>
+  <si>
+    <t>ЕвроТранс</t>
   </si>
   <si>
     <t>Мечел - Привилегированные акции</t>
@@ -1667,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1701,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1724,10 +1751,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1747,10 +1774,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1770,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -1793,10 +1820,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1816,10 +1843,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D7">
         <v>10000</v>
@@ -1839,10 +1866,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1862,10 +1889,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D9">
         <v>1000</v>
@@ -1885,10 +1912,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1908,10 +1935,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1931,10 +1958,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D12">
         <v>1000</v>
@@ -1954,10 +1981,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -1977,10 +2004,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2000,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2023,10 +2050,10 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2046,10 +2073,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2069,10 +2096,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -2092,10 +2119,10 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2115,10 +2142,10 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -2138,10 +2165,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2161,10 +2188,10 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -2184,10 +2211,10 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -2207,10 +2234,10 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2230,22 +2257,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2253,22 +2280,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>100000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2276,10 +2303,10 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2288,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2299,10 +2326,10 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2311,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2322,10 +2349,10 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2334,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2345,22 +2372,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D30">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2368,13 +2395,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -2383,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2391,13 +2418,13 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -2406,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>200000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2414,10 +2441,10 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2429,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2437,22 +2464,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2460,22 +2487,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>5000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2483,13 +2510,13 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2498,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>2000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2506,13 +2533,13 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -2529,22 +2556,22 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D38">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>5000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2552,13 +2579,13 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -2567,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>500000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2575,13 +2602,13 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -2590,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>500000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2598,13 +2625,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -2613,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>10000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2621,10 +2648,10 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2636,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>200000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2644,22 +2671,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2667,13 +2694,13 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -2682,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>5000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2690,13 +2717,13 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -2705,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>500000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2713,10 +2740,10 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -2728,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2736,10 +2763,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -2751,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>5000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2759,13 +2786,13 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -2774,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2782,10 +2809,10 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -2797,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>50000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2805,10 +2832,10 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2828,22 +2855,22 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>500000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2851,22 +2878,22 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2874,13 +2901,13 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -2889,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>10000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2897,22 +2924,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D54">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2920,10 +2947,10 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D55">
         <v>10</v>
@@ -2943,22 +2970,22 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>200000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2966,13 +2993,13 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -2981,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2989,22 +3016,22 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>500000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3012,22 +3039,22 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3035,10 +3062,10 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3050,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>10000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3058,10 +3085,10 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -3073,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>20000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3081,22 +3108,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3104,22 +3131,22 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3127,22 +3154,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3150,22 +3177,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D65">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3173,10 +3200,10 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D66">
         <v>10</v>
@@ -3196,22 +3223,22 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3219,22 +3246,22 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>500000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3242,13 +3269,13 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -3257,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3265,13 +3292,13 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -3280,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>10000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3288,13 +3315,13 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -3303,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>50000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3311,13 +3338,13 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -3326,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>50000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3334,22 +3361,22 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D73">
-        <v>1000000</v>
+        <v>10</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>10000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3357,22 +3384,22 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3380,22 +3407,22 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3403,22 +3430,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D76">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G76">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3426,22 +3453,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>10</v>
       </c>
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
       <c r="G77">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3449,13 +3476,13 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D78">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -3464,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3472,22 +3499,22 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>200000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3495,13 +3522,13 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D80">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -3510,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>20000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3518,22 +3545,22 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3541,22 +3568,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C82" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>200000000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3564,10 +3591,10 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -3576,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>100000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3587,22 +3614,22 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C84" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>50000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3610,10 +3637,10 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C85" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D85">
         <v>10</v>
@@ -3625,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3633,22 +3660,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D86">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>5000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3656,13 +3683,13 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C87" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D87">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -3671,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3679,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3702,22 +3729,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3725,22 +3752,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D90">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3748,22 +3775,22 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D91">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>50000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3771,13 +3798,13 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -3786,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3794,13 +3821,13 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>388</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -3809,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>500000000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3817,22 +3844,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C94" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D94">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3840,22 +3867,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C95" t="s">
-        <v>383</v>
+        <v>245</v>
       </c>
       <c r="D95">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>100000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3863,22 +3890,22 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C96" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>500000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3886,13 +3913,13 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C97" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -3901,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>20000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3909,22 +3936,22 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3932,22 +3959,22 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>500000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3955,19 +3982,19 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3978,10 +4005,10 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -4001,22 +4028,22 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C102" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D102">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G102">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4024,22 +4051,22 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C103" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>200000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4047,22 +4074,22 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>200000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4070,13 +4097,13 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C105" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D105">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -4085,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>10000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4093,22 +4120,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>50000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4116,13 +4143,13 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C107" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E107" t="b">
         <v>1</v>
@@ -4131,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>200000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4139,22 +4166,22 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4162,13 +4189,13 @@
         <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C109" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
@@ -4177,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>50000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4185,22 +4212,22 @@
         <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G110">
-        <v>500000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4208,22 +4235,22 @@
         <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D111">
         <v>10</v>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>200000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4231,13 +4258,13 @@
         <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C112" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D112">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
@@ -4246,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4254,22 +4281,22 @@
         <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C113" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D113">
         <v>10</v>
       </c>
       <c r="E113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>50000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4277,22 +4304,22 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C114" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4300,10 +4327,10 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C115" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D115">
         <v>10</v>
@@ -4315,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4323,22 +4350,22 @@
         <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C116" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D116">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4346,22 +4373,22 @@
         <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C117" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D117">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4369,10 +4396,10 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C118" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D118">
         <v>1000</v>
@@ -4384,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4392,16 +4419,16 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C119" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D119">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -4415,13 +4442,13 @@
         <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C120" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D120">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -4430,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4438,13 +4465,13 @@
         <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C121" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E121" t="b">
         <v>1</v>
@@ -4453,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>500000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4461,13 +4488,13 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C122" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E122" t="b">
         <v>1</v>
@@ -4476,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>500000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4484,10 +4511,10 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C123" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -4507,13 +4534,13 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C124" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D124">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
@@ -4522,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>100000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4530,22 +4557,22 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C125" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
-        <v>50000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4553,22 +4580,22 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C126" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>500000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4576,22 +4603,22 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C127" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D127">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>5000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4599,22 +4626,22 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C128" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D128">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>2000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4622,10 +4649,10 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C129" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D129">
         <v>100</v>
@@ -4645,13 +4672,13 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C130" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D130">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -4660,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>1000000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4668,10 +4695,10 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C131" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D131">
         <v>100</v>
@@ -4683,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4691,22 +4718,22 @@
         <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C132" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D132">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4714,13 +4741,13 @@
         <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C133" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D133">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E133" t="b">
         <v>1</v>
@@ -4729,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>200000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4737,22 +4764,22 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C134" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D134">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>20000000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4760,13 +4787,13 @@
         <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C135" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E135" t="b">
         <v>1</v>
@@ -4775,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4783,13 +4810,13 @@
         <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C136" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E136" t="b">
         <v>1</v>
@@ -4798,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4806,13 +4833,13 @@
         <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C137" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E137" t="b">
         <v>1</v>
@@ -4821,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4829,13 +4856,13 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E138" t="b">
         <v>1</v>
@@ -4844,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>20000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4852,13 +4879,13 @@
         <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C139" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
@@ -4867,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>20000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4875,22 +4902,22 @@
         <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C140" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D140">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>200000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4898,22 +4925,22 @@
         <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C141" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D141">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>50000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4921,22 +4948,22 @@
         <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4944,21 +4971,90 @@
         <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C143" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" t="s">
+        <v>438</v>
+      </c>
+      <c r="D144">
+        <v>10000</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>295</v>
+      </c>
+      <c r="C145" t="s">
+        <v>439</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>20</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>296</v>
+      </c>
+      <c r="C146" t="s">
+        <v>440</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
         <v>200000000</v>
       </c>
     </row>

--- a/dataExl.xlsx
+++ b/dataExl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="501">
   <si>
     <t>figi</t>
   </si>
@@ -37,7 +37,235 @@
     <t>nano</t>
   </si>
   <si>
-    <t>BBG000BN56Q9</t>
+    <t>TCS007940839</t>
+  </si>
+  <si>
+    <t>BBG000FWGSZ5</t>
+  </si>
+  <si>
+    <t>BBG004S68CV8</t>
+  </si>
+  <si>
+    <t>BBG000Q7ZZY2</t>
+  </si>
+  <si>
+    <t>TCS00A106YF0</t>
+  </si>
+  <si>
+    <t>BBG000RJL816</t>
+  </si>
+  <si>
+    <t>BBG004RVFCY3</t>
+  </si>
+  <si>
+    <t>BBG002GHV6L9</t>
+  </si>
+  <si>
+    <t>TCS00A0ZZAC4</t>
+  </si>
+  <si>
+    <t>TCS009124010</t>
+  </si>
+  <si>
+    <t>BBG001M2SC01</t>
+  </si>
+  <si>
+    <t>BBG0029SG1C1</t>
+  </si>
+  <si>
+    <t>TCS00A105EX7</t>
+  </si>
+  <si>
+    <t>TCS00A107JE2</t>
+  </si>
+  <si>
+    <t>TCS00A0JPP37</t>
+  </si>
+  <si>
+    <t>BBG004S689R0</t>
+  </si>
+  <si>
+    <t>TCS00A106XF2</t>
+  </si>
+  <si>
+    <t>TCS2207L1061</t>
+  </si>
+  <si>
+    <t>BBG000SK7JS5</t>
+  </si>
+  <si>
+    <t>BBG002458LF8</t>
+  </si>
+  <si>
+    <t>BBG004S68829</t>
+  </si>
+  <si>
+    <t>TCS009086904</t>
+  </si>
+  <si>
+    <t>TCS00A0JNXF9</t>
+  </si>
+  <si>
+    <t>BBG004S68507</t>
+  </si>
+  <si>
+    <t>BBG004730ZJ9</t>
+  </si>
+  <si>
+    <t>TCS00A105NV2</t>
+  </si>
+  <si>
+    <t>BBG008F2T3T2</t>
+  </si>
+  <si>
+    <t>BBG00BGKYH17</t>
+  </si>
+  <si>
+    <t>TCS00A0F61T7</t>
+  </si>
+  <si>
+    <t>BBG004S686N0</t>
+  </si>
+  <si>
+    <t>BBG00172J7S9</t>
+  </si>
+  <si>
+    <t>BBG004S68B31</t>
+  </si>
+  <si>
+    <t>BBG000VG1034</t>
+  </si>
+  <si>
+    <t>BBG000R04X57</t>
+  </si>
+  <si>
+    <t>TCS00A107ER5</t>
+  </si>
+  <si>
+    <t>BBG004RVFFC0</t>
+  </si>
+  <si>
+    <t>TCS10A0JNAB6</t>
+  </si>
+  <si>
+    <t>BBG008HD3V85</t>
+  </si>
+  <si>
+    <t>BBG000V07CB8</t>
+  </si>
+  <si>
+    <t>BBG004S682Z6</t>
+  </si>
+  <si>
+    <t>BBG004S681W1</t>
+  </si>
+  <si>
+    <t>BBG000RG4ZQ4</t>
+  </si>
+  <si>
+    <t>BBG00475KHX6</t>
+  </si>
+  <si>
+    <t>BBG00475JZZ6</t>
+  </si>
+  <si>
+    <t>TCS00A0HG6Z8</t>
+  </si>
+  <si>
+    <t>BBG000MZL0Y6</t>
+  </si>
+  <si>
+    <t>BBG000QFB4J6</t>
+  </si>
+  <si>
+    <t>BBG004S687G6</t>
+  </si>
+  <si>
+    <t>BBG004S68473</t>
+  </si>
+  <si>
+    <t>BBG002BCQK67</t>
+  </si>
+  <si>
+    <t>BBG000RTHVK7</t>
+  </si>
+  <si>
+    <t>BBG004S681M2</t>
+  </si>
+  <si>
+    <t>BBG00475KKY8</t>
+  </si>
+  <si>
+    <t>BBG002YFXL29</t>
+  </si>
+  <si>
+    <t>BBG000GQSRR5</t>
+  </si>
+  <si>
+    <t>BBG000W325F7</t>
+  </si>
+  <si>
+    <t>BBG000BX7DH0</t>
+  </si>
+  <si>
+    <t>BBG004730JJ5</t>
+  </si>
+  <si>
+    <t>BBG004Z2RGW8</t>
+  </si>
+  <si>
+    <t>BBG00Y91R9T3</t>
+  </si>
+  <si>
+    <t>BBG000RK52V1</t>
+  </si>
+  <si>
+    <t>TCS009084453</t>
+  </si>
+  <si>
+    <t>BBG000VFX6Y4</t>
+  </si>
+  <si>
+    <t>BBG002B9T6Y1</t>
+  </si>
+  <si>
+    <t>BBG0047315D0</t>
+  </si>
+  <si>
+    <t>BBG009GSYN76</t>
+  </si>
+  <si>
+    <t>BBG000RJWGC4</t>
+  </si>
+  <si>
+    <t>BBG000Q7GJ60</t>
+  </si>
+  <si>
+    <t>BBG002W2FT69</t>
+  </si>
+  <si>
+    <t>BBG004S68BH6</t>
+  </si>
+  <si>
+    <t>BBG004731354</t>
+  </si>
+  <si>
+    <t>TCS00A1002V2</t>
+  </si>
+  <si>
+    <t>BBG004TC84Z8</t>
+  </si>
+  <si>
+    <t>TCS00A0ZZBC2</t>
+  </si>
+  <si>
+    <t>BBG000VKG4R5</t>
+  </si>
+  <si>
+    <t>BBG002B2J5X0</t>
+  </si>
+  <si>
+    <t>BBG00475K6C3</t>
   </si>
   <si>
     <t>BBG000RMWQD4</t>
@@ -49,54 +277,33 @@
     <t>BBG000GQSVC2</t>
   </si>
   <si>
-    <t>BBG000FWGSZ5</t>
+    <t>TCS00A0HG602</t>
+  </si>
+  <si>
+    <t>TCS009102396</t>
   </si>
   <si>
     <t>BBG000PKWCQ7</t>
   </si>
   <si>
-    <t>BBG004S68CV8</t>
-  </si>
-  <si>
-    <t>BBG000Q7ZZY2</t>
-  </si>
-  <si>
     <t>BBG004S68C39</t>
   </si>
   <si>
-    <t>TCS00A106YF0</t>
-  </si>
-  <si>
-    <t>BBG000RJL816</t>
+    <t>TCS00A107UL4</t>
   </si>
   <si>
     <t>BBG000BBV4M5</t>
   </si>
   <si>
-    <t>BBG004RVFCY3</t>
+    <t>TCS5407L2079</t>
   </si>
   <si>
     <t>BBG004S68JR8</t>
   </si>
   <si>
-    <t>BBG002GHV6L9</t>
-  </si>
-  <si>
-    <t>BBG001M2SC01</t>
-  </si>
-  <si>
     <t>BBG004S685M3</t>
   </si>
   <si>
-    <t>BBG011MCM288</t>
-  </si>
-  <si>
-    <t>BBG0029SG1C1</t>
-  </si>
-  <si>
-    <t>TCS00A105EX7</t>
-  </si>
-  <si>
     <t>BBG000LNHHJ9</t>
   </si>
   <si>
@@ -106,52 +313,28 @@
     <t>BBG00ZHCX1X2</t>
   </si>
   <si>
-    <t>TCS00A0JPP37</t>
-  </si>
-  <si>
-    <t>BBG004S689R0</t>
-  </si>
-  <si>
-    <t>TCS00A106XF2</t>
-  </si>
-  <si>
-    <t>TCS2207L1061</t>
-  </si>
-  <si>
-    <t>BBG000SK7JS5</t>
-  </si>
-  <si>
     <t>BBG000PZ0833</t>
   </si>
   <si>
     <t>BBG000F6YPH8</t>
   </si>
   <si>
-    <t>BBG002458LF8</t>
-  </si>
-  <si>
     <t>BBG007N0Z367</t>
   </si>
   <si>
-    <t>BBG004S68829</t>
-  </si>
-  <si>
     <t>BBG00R4Z2NT4</t>
   </si>
   <si>
-    <t>TCS102B9M1L3</t>
+    <t>TCS002614686</t>
   </si>
   <si>
     <t>BBG000VQWH86</t>
   </si>
   <si>
-    <t>TCS00A0JNXF9</t>
-  </si>
-  <si>
-    <t>BBG004S68507</t>
-  </si>
-  <si>
-    <t>BBG004730ZJ9</t>
+    <t>TCS000BN56Q9</t>
+  </si>
+  <si>
+    <t>TCS10A0JV532</t>
   </si>
   <si>
     <t>BBG00F6NKQX3</t>
@@ -166,18 +349,15 @@
     <t>BBG012YQ6P43</t>
   </si>
   <si>
-    <t>TCS00A105NV2</t>
-  </si>
-  <si>
-    <t>BBG008F2T3T2</t>
-  </si>
-  <si>
-    <t>BBG00BGKYH17</t>
+    <t>BBG001BBGNS2</t>
   </si>
   <si>
     <t>BBG004730N88</t>
   </si>
   <si>
+    <t>BBG001DJNR51</t>
+  </si>
+  <si>
     <t>TCS00A105BN4</t>
   </si>
   <si>
@@ -190,27 +370,9 @@
     <t>BBG004S68CP5</t>
   </si>
   <si>
-    <t>BBG004S686N0</t>
-  </si>
-  <si>
-    <t>BBG00172J7S9</t>
-  </si>
-  <si>
-    <t>BBG004S68B31</t>
-  </si>
-  <si>
-    <t>BBG000VG1034</t>
-  </si>
-  <si>
-    <t>BBG000R04X57</t>
-  </si>
-  <si>
     <t>BBG000MZL2S9</t>
   </si>
   <si>
-    <t>BBG004RVFFC0</t>
-  </si>
-  <si>
     <t>BBG00JXPFBN0</t>
   </si>
   <si>
@@ -220,48 +382,24 @@
     <t>BBG004S68598</t>
   </si>
   <si>
-    <t>TCS10A0JNAB6</t>
-  </si>
-  <si>
-    <t>BBG008HD3V85</t>
-  </si>
-  <si>
     <t>BBG004S688G4</t>
   </si>
   <si>
     <t>BBG004730RP0</t>
   </si>
   <si>
-    <t>BBG000V07CB8</t>
-  </si>
-  <si>
     <t>BBG0047315Y7</t>
   </si>
   <si>
-    <t>BBG004S682Z6</t>
-  </si>
-  <si>
     <t>BBG0063FKTD9</t>
   </si>
   <si>
-    <t>BBG0019K04R5</t>
-  </si>
-  <si>
     <t>BBG000QJW156</t>
   </si>
   <si>
-    <t>BBG004S681W1</t>
-  </si>
-  <si>
     <t>RU000A106T36</t>
   </si>
   <si>
-    <t>BBG000RG4ZQ4</t>
-  </si>
-  <si>
-    <t>BBG00475KHX6</t>
-  </si>
-  <si>
     <t>BBG000LWNRP3</t>
   </si>
   <si>
@@ -277,18 +415,12 @@
     <t>TCS00A103X66</t>
   </si>
   <si>
-    <t>BBG00475JZZ6</t>
-  </si>
-  <si>
     <t>BBG000NLB2G3</t>
   </si>
   <si>
     <t>BBG002B9MYC1</t>
   </si>
   <si>
-    <t>BBG000MZL0Y6</t>
-  </si>
-  <si>
     <t>BBG004S684M6</t>
   </si>
   <si>
@@ -307,9 +439,6 @@
     <t>BBG00F9XX7H4</t>
   </si>
   <si>
-    <t>BBG004S687G6</t>
-  </si>
-  <si>
     <t>BBG000TJ6F42</t>
   </si>
   <si>
@@ -319,33 +448,18 @@
     <t>BBG005D1WCQ1</t>
   </si>
   <si>
-    <t>BBG004S68473</t>
-  </si>
-  <si>
     <t>BBG00475K2X9</t>
   </si>
   <si>
-    <t>BBG002BCQK67</t>
-  </si>
-  <si>
     <t>BBG004S681B4</t>
   </si>
   <si>
     <t>BBG000TY1CD1</t>
   </si>
   <si>
-    <t>BBG000RTHVK7</t>
-  </si>
-  <si>
     <t>BBG000SR0YS4</t>
   </si>
   <si>
-    <t>BBG00QPYJ5H0</t>
-  </si>
-  <si>
-    <t>BBG004S681M2</t>
-  </si>
-  <si>
     <t>BBG006L8G4H1</t>
   </si>
   <si>
@@ -358,19 +472,7 @@
     <t>BBG004S68696</t>
   </si>
   <si>
-    <t>BBG00475KKY8</t>
-  </si>
-  <si>
-    <t>BBG002YFXL29</t>
-  </si>
-  <si>
-    <t>BBG000GQSRR5</t>
-  </si>
-  <si>
-    <t>BBG000W325F7</t>
-  </si>
-  <si>
-    <t>BBG000BX7DH0</t>
+    <t>TCS009177281</t>
   </si>
   <si>
     <t>BBG0100R9963</t>
@@ -382,7 +484,7 @@
     <t>BBG004731489</t>
   </si>
   <si>
-    <t>BBG004730JJ5</t>
+    <t>TCS00A0JR514</t>
   </si>
   <si>
     <t>BBG004S686W0</t>
@@ -391,9 +493,6 @@
     <t>BBG000VJMH65</t>
   </si>
   <si>
-    <t>BBG004Z2RGW8</t>
-  </si>
-  <si>
     <t>BBG004S687W8</t>
   </si>
   <si>
@@ -403,19 +502,19 @@
     <t>BBG000R607Y3</t>
   </si>
   <si>
-    <t>BBG00Y91R9T3</t>
-  </si>
-  <si>
     <t>BBG004731032</t>
   </si>
   <si>
-    <t>BBG000RK52V1</t>
-  </si>
-  <si>
-    <t>BBG000VFX6Y4</t>
-  </si>
-  <si>
-    <t>BBG002B9T6Y1</t>
+    <t>TCS00A107J11</t>
+  </si>
+  <si>
+    <t>TCS00A0JVJQ8</t>
+  </si>
+  <si>
+    <t>TCS00A0ZZFS9</t>
+  </si>
+  <si>
+    <t>TCS009046502</t>
   </si>
   <si>
     <t>BBG004S68BR5</t>
@@ -424,169 +523,313 @@
     <t>BBG000QFH687</t>
   </si>
   <si>
-    <t>BBG0047315D0</t>
-  </si>
-  <si>
-    <t>BBG009GSYN76</t>
-  </si>
-  <si>
-    <t>BBG000RJWGC4</t>
-  </si>
-  <si>
-    <t>BBG000Q7GJ60</t>
-  </si>
-  <si>
-    <t>BBG002W2FT69</t>
-  </si>
-  <si>
     <t>BBG0027F0Y27</t>
   </si>
   <si>
-    <t>BBG004S68BH6</t>
-  </si>
-  <si>
-    <t>BBG004731354</t>
-  </si>
-  <si>
-    <t>TCS00A1002V2</t>
-  </si>
-  <si>
     <t>BBG004S68FR6</t>
   </si>
   <si>
-    <t>BBG004TC84Z8</t>
-  </si>
-  <si>
-    <t>TCS00A0ZZBC2</t>
-  </si>
-  <si>
-    <t>BBG000VKG4R5</t>
-  </si>
-  <si>
     <t>BBG000C7P5M7</t>
   </si>
   <si>
-    <t>BBG002B2J5X0</t>
-  </si>
-  <si>
-    <t>BBG00475K6C3</t>
+    <t>KZIZP</t>
+  </si>
+  <si>
+    <t>IRKT</t>
+  </si>
+  <si>
+    <t>VSMO</t>
+  </si>
+  <si>
+    <t>UNAC</t>
+  </si>
+  <si>
+    <t>VKCO</t>
+  </si>
+  <si>
+    <t>TTLK</t>
+  </si>
+  <si>
+    <t>MGNT</t>
+  </si>
+  <si>
+    <t>SPBE</t>
+  </si>
+  <si>
+    <t>SVCB</t>
+  </si>
+  <si>
+    <t>KZIZ</t>
+  </si>
+  <si>
+    <t>ETLN</t>
+  </si>
+  <si>
+    <t>KZOSP</t>
+  </si>
+  <si>
+    <t>WUSH</t>
+  </si>
+  <si>
+    <t>GEMC</t>
+  </si>
+  <si>
+    <t>UGLD</t>
+  </si>
+  <si>
+    <t>PHOR</t>
+  </si>
+  <si>
+    <t>HNFG</t>
+  </si>
+  <si>
+    <t>HHRU</t>
+  </si>
+  <si>
+    <t>LNZL</t>
+  </si>
+  <si>
+    <t>SELG</t>
+  </si>
+  <si>
+    <t>TATNP</t>
+  </si>
+  <si>
+    <t>SLAV</t>
+  </si>
+  <si>
+    <t>PRFN</t>
+  </si>
+  <si>
+    <t>MAGN</t>
+  </si>
+  <si>
+    <t>VTBR</t>
+  </si>
+  <si>
+    <t>CARM</t>
+  </si>
+  <si>
+    <t>RUAL</t>
+  </si>
+  <si>
+    <t>NKHP</t>
+  </si>
+  <si>
+    <t>TGKJ</t>
+  </si>
+  <si>
+    <t>BANEP</t>
+  </si>
+  <si>
+    <t>OKEY</t>
+  </si>
+  <si>
+    <t>ALRS</t>
+  </si>
+  <si>
+    <t>MRKP</t>
+  </si>
+  <si>
+    <t>FLOT</t>
+  </si>
+  <si>
+    <t>DIAS</t>
+  </si>
+  <si>
+    <t>TATN</t>
+  </si>
+  <si>
+    <t>ABIO</t>
+  </si>
+  <si>
+    <t>UWGN</t>
+  </si>
+  <si>
+    <t>DVEC</t>
+  </si>
+  <si>
+    <t>RTKM</t>
+  </si>
+  <si>
+    <t>MTSS</t>
+  </si>
+  <si>
+    <t>TGKN</t>
+  </si>
+  <si>
+    <t>TRNFP</t>
+  </si>
+  <si>
+    <t>FEES</t>
+  </si>
+  <si>
+    <t>OBNE</t>
+  </si>
+  <si>
+    <t>PMSB</t>
+  </si>
+  <si>
+    <t>ZILLP</t>
+  </si>
+  <si>
+    <t>MSRS</t>
+  </si>
+  <si>
+    <t>IRAO</t>
+  </si>
+  <si>
+    <t>NSVZ</t>
+  </si>
+  <si>
+    <t>GCHE</t>
+  </si>
+  <si>
+    <t>SNGSP</t>
+  </si>
+  <si>
+    <t>NVTK</t>
+  </si>
+  <si>
+    <t>UNKL</t>
+  </si>
+  <si>
+    <t>NKNC</t>
+  </si>
+  <si>
+    <t>AQUA</t>
+  </si>
+  <si>
+    <t>VRSB</t>
+  </si>
+  <si>
+    <t>MOEX</t>
+  </si>
+  <si>
+    <t>ROLO</t>
+  </si>
+  <si>
+    <t>OZON</t>
+  </si>
+  <si>
+    <t>OGKB</t>
+  </si>
+  <si>
+    <t>NOMP</t>
+  </si>
+  <si>
+    <t>GLTR</t>
+  </si>
+  <si>
+    <t>KAZTP</t>
+  </si>
+  <si>
+    <t>SNGS</t>
+  </si>
+  <si>
+    <t>CBOM</t>
+  </si>
+  <si>
+    <t>AMEZ</t>
+  </si>
+  <si>
+    <t>TGKBP</t>
+  </si>
+  <si>
+    <t>ABRD</t>
+  </si>
+  <si>
+    <t>PIKK</t>
+  </si>
+  <si>
+    <t>ROSN</t>
+  </si>
+  <si>
+    <t>EUTR</t>
+  </si>
+  <si>
+    <t>TRMK</t>
+  </si>
+  <si>
+    <t>SOFL</t>
+  </si>
+  <si>
+    <t>MRKU</t>
+  </si>
+  <si>
+    <t>KRKNP</t>
+  </si>
+  <si>
+    <t>CHMF</t>
+  </si>
+  <si>
+    <t>ENPG</t>
+  </si>
+  <si>
+    <t>POLY</t>
+  </si>
+  <si>
+    <t>NKNCP</t>
+  </si>
+  <si>
+    <t>OBNEP</t>
+  </si>
+  <si>
+    <t>UFOSP</t>
+  </si>
+  <si>
+    <t>MRKV</t>
+  </si>
+  <si>
+    <t>LSRG</t>
+  </si>
+  <si>
+    <t>TCSG</t>
+  </si>
+  <si>
+    <t>CNTL</t>
+  </si>
+  <si>
+    <t>SFTL</t>
+  </si>
+  <si>
+    <t>SVAV</t>
+  </si>
+  <si>
+    <t>RTKMP</t>
+  </si>
+  <si>
+    <t>KMAZ</t>
+  </si>
+  <si>
+    <t>KZOS</t>
+  </si>
+  <si>
+    <t>FIXP</t>
+  </si>
+  <si>
+    <t>MGTSP</t>
+  </si>
+  <si>
+    <t>ELFV</t>
+  </si>
+  <si>
+    <t>AGRO</t>
+  </si>
+  <si>
+    <t>VEON-RX</t>
+  </si>
+  <si>
+    <t>NTZL</t>
+  </si>
+  <si>
+    <t>BLNG</t>
   </si>
   <si>
     <t>DSKY</t>
   </si>
   <si>
-    <t>ENPG</t>
-  </si>
-  <si>
-    <t>POLY</t>
-  </si>
-  <si>
-    <t>NKNCP</t>
-  </si>
-  <si>
-    <t>IRKT</t>
-  </si>
-  <si>
-    <t>MRKV</t>
-  </si>
-  <si>
-    <t>VSMO</t>
-  </si>
-  <si>
-    <t>UNAC</t>
-  </si>
-  <si>
-    <t>LSRG</t>
-  </si>
-  <si>
-    <t>VKCO</t>
-  </si>
-  <si>
-    <t>TTLK</t>
-  </si>
-  <si>
-    <t>CNTL</t>
-  </si>
-  <si>
-    <t>MGNT</t>
-  </si>
-  <si>
-    <t>SVAV</t>
-  </si>
-  <si>
-    <t>SPBE</t>
-  </si>
-  <si>
-    <t>ETLN</t>
-  </si>
-  <si>
-    <t>RTKMP</t>
-  </si>
-  <si>
-    <t>GEMC</t>
-  </si>
-  <si>
-    <t>KZOSP</t>
-  </si>
-  <si>
-    <t>WUSH</t>
-  </si>
-  <si>
-    <t>KMAZ</t>
-  </si>
-  <si>
-    <t>KZOS</t>
-  </si>
-  <si>
-    <t>FIXP</t>
-  </si>
-  <si>
-    <t>UGLD</t>
-  </si>
-  <si>
-    <t>PHOR</t>
-  </si>
-  <si>
-    <t>HNFG</t>
-  </si>
-  <si>
-    <t>HHRU</t>
-  </si>
-  <si>
-    <t>LNZL</t>
-  </si>
-  <si>
-    <t>MGTSP</t>
-  </si>
-  <si>
-    <t>ELFV</t>
-  </si>
-  <si>
-    <t>SELG</t>
-  </si>
-  <si>
-    <t>AGRO</t>
-  </si>
-  <si>
-    <t>TATNP</t>
-  </si>
-  <si>
-    <t>VEON-RX</t>
-  </si>
-  <si>
-    <t>ELTZ</t>
-  </si>
-  <si>
-    <t>BLNG</t>
-  </si>
-  <si>
-    <t>PRFN</t>
-  </si>
-  <si>
-    <t>MAGN</t>
-  </si>
-  <si>
-    <t>VTBR</t>
+    <t>GRNT</t>
   </si>
   <si>
     <t>SMLT</t>
@@ -601,18 +844,15 @@
     <t>CIAN</t>
   </si>
   <si>
-    <t>CARM</t>
-  </si>
-  <si>
-    <t>RUAL</t>
-  </si>
-  <si>
-    <t>NKHP</t>
+    <t>ORUP</t>
   </si>
   <si>
     <t>SBER</t>
   </si>
   <si>
+    <t>RBCM</t>
+  </si>
+  <si>
     <t>GECO</t>
   </si>
   <si>
@@ -625,27 +865,9 @@
     <t>MVID</t>
   </si>
   <si>
-    <t>BANEP</t>
-  </si>
-  <si>
-    <t>OKEY</t>
-  </si>
-  <si>
-    <t>ALRS</t>
-  </si>
-  <si>
-    <t>MRKP</t>
-  </si>
-  <si>
-    <t>FLOT</t>
-  </si>
-  <si>
     <t>PMSBP</t>
   </si>
   <si>
-    <t>TATN</t>
-  </si>
-  <si>
     <t>FIVE</t>
   </si>
   <si>
@@ -655,180 +877,117 @@
     <t>MTLR</t>
   </si>
   <si>
-    <t>ABIO</t>
-  </si>
-  <si>
-    <t>UWGN</t>
-  </si>
-  <si>
     <t>AKRN</t>
   </si>
   <si>
     <t>GAZP</t>
   </si>
   <si>
-    <t>DVEC</t>
-  </si>
-  <si>
     <t>SBERP</t>
   </si>
   <si>
-    <t>RTKM</t>
-  </si>
-  <si>
     <t>LENT</t>
   </si>
   <si>
+    <t>BSPB</t>
+  </si>
+  <si>
+    <t>ASTR</t>
+  </si>
+  <si>
+    <t>RKKE</t>
+  </si>
+  <si>
+    <t>LSNG</t>
+  </si>
+  <si>
+    <t>RENI</t>
+  </si>
+  <si>
+    <t>MRKC</t>
+  </si>
+  <si>
+    <t>POSI</t>
+  </si>
+  <si>
+    <t>KROT</t>
+  </si>
+  <si>
+    <t>KAZT</t>
+  </si>
+  <si>
+    <t>SIBN</t>
+  </si>
+  <si>
+    <t>YAKG</t>
+  </si>
+  <si>
+    <t>TGKB</t>
+  </si>
+  <si>
+    <t>KLSB</t>
+  </si>
+  <si>
+    <t>CHMK</t>
+  </si>
+  <si>
+    <t>RNFT</t>
+  </si>
+  <si>
+    <t>MRKZ</t>
+  </si>
+  <si>
+    <t>APTK</t>
+  </si>
+  <si>
+    <t>QIWI</t>
+  </si>
+  <si>
+    <t>HYDR</t>
+  </si>
+  <si>
+    <t>NLMK</t>
+  </si>
+  <si>
+    <t>BELU</t>
+  </si>
+  <si>
+    <t>LNZLP</t>
+  </si>
+  <si>
+    <t>YNDX</t>
+  </si>
+  <si>
+    <t>SFIN</t>
+  </si>
+  <si>
+    <t>FESH</t>
+  </si>
+  <si>
+    <t>RASP</t>
+  </si>
+  <si>
+    <t>NOMPP</t>
+  </si>
+  <si>
+    <t>SGZH</t>
+  </si>
+  <si>
+    <t>LSNGP</t>
+  </si>
+  <si>
+    <t>GMKN</t>
+  </si>
+  <si>
     <t>LIFE</t>
   </si>
   <si>
-    <t>BSPB</t>
-  </si>
-  <si>
-    <t>MTSS</t>
-  </si>
-  <si>
-    <t>ASTR</t>
-  </si>
-  <si>
-    <t>TGKN</t>
-  </si>
-  <si>
-    <t>TRNFP</t>
-  </si>
-  <si>
-    <t>RKKE</t>
-  </si>
-  <si>
-    <t>LSNG</t>
-  </si>
-  <si>
-    <t>RENI</t>
-  </si>
-  <si>
-    <t>MRKC</t>
-  </si>
-  <si>
-    <t>POSI</t>
-  </si>
-  <si>
-    <t>FEES</t>
-  </si>
-  <si>
-    <t>KROT</t>
-  </si>
-  <si>
-    <t>KAZT</t>
-  </si>
-  <si>
-    <t>PMSB</t>
-  </si>
-  <si>
-    <t>SIBN</t>
-  </si>
-  <si>
-    <t>YAKG</t>
-  </si>
-  <si>
-    <t>TGKB</t>
-  </si>
-  <si>
-    <t>KLSB</t>
-  </si>
-  <si>
-    <t>CHMK</t>
-  </si>
-  <si>
-    <t>RNFT</t>
-  </si>
-  <si>
-    <t>MSRS</t>
-  </si>
-  <si>
-    <t>MRKZ</t>
-  </si>
-  <si>
-    <t>APTK</t>
-  </si>
-  <si>
-    <t>QIWI</t>
-  </si>
-  <si>
-    <t>IRAO</t>
-  </si>
-  <si>
-    <t>HYDR</t>
-  </si>
-  <si>
-    <t>NSVZ</t>
-  </si>
-  <si>
-    <t>NLMK</t>
-  </si>
-  <si>
-    <t>BELU</t>
-  </si>
-  <si>
-    <t>GCHE</t>
-  </si>
-  <si>
-    <t>LNZLP</t>
-  </si>
-  <si>
-    <t>TCSG</t>
-  </si>
-  <si>
-    <t>SNGSP</t>
-  </si>
-  <si>
-    <t>YNDX</t>
-  </si>
-  <si>
-    <t>SFIN</t>
-  </si>
-  <si>
-    <t>FESH</t>
-  </si>
-  <si>
-    <t>RASP</t>
-  </si>
-  <si>
-    <t>NVTK</t>
-  </si>
-  <si>
-    <t>UNKL</t>
-  </si>
-  <si>
-    <t>NKNC</t>
-  </si>
-  <si>
-    <t>AQUA</t>
-  </si>
-  <si>
-    <t>VRSB</t>
-  </si>
-  <si>
-    <t>SGZH</t>
-  </si>
-  <si>
-    <t>LSNGP</t>
-  </si>
-  <si>
-    <t>GMKN</t>
-  </si>
-  <si>
-    <t>MOEX</t>
-  </si>
-  <si>
     <t>UPRO</t>
   </si>
   <si>
     <t>MRKS</t>
   </si>
   <si>
-    <t>ROLO</t>
-  </si>
-  <si>
     <t>MSNG</t>
   </si>
   <si>
@@ -838,19 +997,19 @@
     <t>PLZL</t>
   </si>
   <si>
-    <t>OZON</t>
-  </si>
-  <si>
     <t>LKOH</t>
   </si>
   <si>
-    <t>OGKB</t>
-  </si>
-  <si>
-    <t>GLTR</t>
-  </si>
-  <si>
-    <t>KAZTP</t>
+    <t>DELI</t>
+  </si>
+  <si>
+    <t>MGKL</t>
+  </si>
+  <si>
+    <t>LEAS</t>
+  </si>
+  <si>
+    <t>UDMN</t>
   </si>
   <si>
     <t>NMTP</t>
@@ -859,169 +1018,313 @@
     <t>TGKA</t>
   </si>
   <si>
-    <t>SNGS</t>
-  </si>
-  <si>
-    <t>CBOM</t>
-  </si>
-  <si>
-    <t>AMEZ</t>
-  </si>
-  <si>
-    <t>TGKBP</t>
-  </si>
-  <si>
-    <t>ABRD</t>
-  </si>
-  <si>
     <t>CNTLP</t>
   </si>
   <si>
-    <t>PIKK</t>
-  </si>
-  <si>
-    <t>ROSN</t>
-  </si>
-  <si>
-    <t>EUTR</t>
-  </si>
-  <si>
     <t>MTLRP</t>
   </si>
   <si>
-    <t>TRMK</t>
-  </si>
-  <si>
-    <t>SOFL</t>
-  </si>
-  <si>
-    <t>MRKU</t>
-  </si>
-  <si>
     <t>MRKY</t>
   </si>
   <si>
-    <t>KRKNP</t>
-  </si>
-  <si>
-    <t>CHMF</t>
+    <t>Красногорский завод им. С.А. Зверева - привилегированные акции</t>
+  </si>
+  <si>
+    <t>Яковлев</t>
+  </si>
+  <si>
+    <t>ВСМПО-АВИСМА</t>
+  </si>
+  <si>
+    <t>Объединенная авиастроительная корпорация</t>
+  </si>
+  <si>
+    <t>ВК</t>
+  </si>
+  <si>
+    <t>Таттелеком</t>
+  </si>
+  <si>
+    <t>Магнит</t>
+  </si>
+  <si>
+    <t>СПБ Биржа</t>
+  </si>
+  <si>
+    <t>Совкомбанк</t>
+  </si>
+  <si>
+    <t>Красногорский завод им. С.А. Зверева - ао</t>
+  </si>
+  <si>
+    <t>Etalon Group PLC ГДР</t>
+  </si>
+  <si>
+    <t>Казаньоргсинтез - акции привилегированные</t>
+  </si>
+  <si>
+    <t>Whoosh</t>
+  </si>
+  <si>
+    <t>United medical group</t>
+  </si>
+  <si>
+    <t>Южуралзолото ГК</t>
+  </si>
+  <si>
+    <t>ФосАгро</t>
+  </si>
+  <si>
+    <t>HENDERSON</t>
+  </si>
+  <si>
+    <t>HeadHunter Group PLC</t>
+  </si>
+  <si>
+    <t>Лензолото</t>
+  </si>
+  <si>
+    <t>Селигдар</t>
+  </si>
+  <si>
+    <t>Татнефть - привилегированные акции</t>
+  </si>
+  <si>
+    <t>Славнефть</t>
+  </si>
+  <si>
+    <t>ЧЗПСН</t>
+  </si>
+  <si>
+    <t>Магнитогорский металлургический комбинат</t>
+  </si>
+  <si>
+    <t>Банк ВТБ</t>
+  </si>
+  <si>
+    <t>КарМани</t>
+  </si>
+  <si>
+    <t>РУСАЛ</t>
+  </si>
+  <si>
+    <t>НКХП</t>
+  </si>
+  <si>
+    <t>Форвард Энерго</t>
+  </si>
+  <si>
+    <t>Башнефть - привилегированные акции</t>
+  </si>
+  <si>
+    <t>O'Key Group SA</t>
+  </si>
+  <si>
+    <t>АЛРОСА</t>
+  </si>
+  <si>
+    <t>Россети Центр и Приволжье</t>
+  </si>
+  <si>
+    <t>Совкомфлот</t>
+  </si>
+  <si>
+    <t>Диасофт</t>
+  </si>
+  <si>
+    <t>Татнефть</t>
+  </si>
+  <si>
+    <t>Артген</t>
+  </si>
+  <si>
+    <t>ОВК</t>
+  </si>
+  <si>
+    <t>ДЭК</t>
+  </si>
+  <si>
+    <t>Ростелеком</t>
+  </si>
+  <si>
+    <t>МТС</t>
+  </si>
+  <si>
+    <t>ТГК-14</t>
+  </si>
+  <si>
+    <t>Транснефть - привилегированные акции</t>
+  </si>
+  <si>
+    <t>ФСК Россети</t>
+  </si>
+  <si>
+    <t>Обьнефтегазгеология - ао</t>
+  </si>
+  <si>
+    <t>Пермэнергосбыт</t>
+  </si>
+  <si>
+    <t>ЗИЛ - акции привилегированные</t>
+  </si>
+  <si>
+    <t>Россети Московский регион</t>
+  </si>
+  <si>
+    <t>Интер РАО ЕЭС</t>
+  </si>
+  <si>
+    <t>Наука-Связь</t>
+  </si>
+  <si>
+    <t>Группа Черкизово</t>
+  </si>
+  <si>
+    <t>Сургутнефтегаз - привилегированные акции</t>
+  </si>
+  <si>
+    <t>НОВАТЭК</t>
+  </si>
+  <si>
+    <t>ЮУНК</t>
+  </si>
+  <si>
+    <t>Нижнекамскнефтехим</t>
+  </si>
+  <si>
+    <t>ИНАРКТИКА</t>
+  </si>
+  <si>
+    <t>ТНС энерго Воронеж</t>
+  </si>
+  <si>
+    <t>Московская Биржа</t>
+  </si>
+  <si>
+    <t>Русолово</t>
+  </si>
+  <si>
+    <t>Ozon Holdings PLC</t>
+  </si>
+  <si>
+    <t>Вторая генерирующая компания оптового рынка электроэнергии</t>
+  </si>
+  <si>
+    <t>Новошип - ао</t>
+  </si>
+  <si>
+    <t>Globaltrans Investment PLC</t>
+  </si>
+  <si>
+    <t>КуйбышевАзот - Акции привилегированные</t>
+  </si>
+  <si>
+    <t>Сургутнефтегаз</t>
+  </si>
+  <si>
+    <t>МКБ</t>
+  </si>
+  <si>
+    <t>Ашинский метзавод</t>
+  </si>
+  <si>
+    <t>ТГК-2 - акции привилегированные</t>
+  </si>
+  <si>
+    <t>АбрауДюрсо</t>
+  </si>
+  <si>
+    <t>ПИК</t>
+  </si>
+  <si>
+    <t>Роснефть</t>
+  </si>
+  <si>
+    <t>ЕвроТранс</t>
+  </si>
+  <si>
+    <t>Трубная Металлургическая Компания</t>
+  </si>
+  <si>
+    <t>Софтлайн</t>
+  </si>
+  <si>
+    <t>Россети Урал</t>
+  </si>
+  <si>
+    <t>Саратовский НПЗ - акции привилегированные</t>
+  </si>
+  <si>
+    <t>Северсталь</t>
+  </si>
+  <si>
+    <t>Эн+</t>
+  </si>
+  <si>
+    <t>Polymetal</t>
+  </si>
+  <si>
+    <t>Нижнекамскнефтехим (привилегированные)</t>
+  </si>
+  <si>
+    <t>Обьнефтегазгеология - привилегированные акции</t>
+  </si>
+  <si>
+    <t>Уфаоргсинтез - привилегированные акции</t>
+  </si>
+  <si>
+    <t>МРСК Волги</t>
+  </si>
+  <si>
+    <t>Группа ЛСР</t>
+  </si>
+  <si>
+    <t>ТКС Холдинг</t>
+  </si>
+  <si>
+    <t>Центральный Телеграф</t>
+  </si>
+  <si>
+    <t>Noventiq ГДР</t>
+  </si>
+  <si>
+    <t>СОЛЛЕРС</t>
+  </si>
+  <si>
+    <t>Ростелеком - Привилегированные акции</t>
+  </si>
+  <si>
+    <t>КАМАЗ</t>
+  </si>
+  <si>
+    <t>Казаньоргсинтез - акции обыкновенные</t>
+  </si>
+  <si>
+    <t>Fix Price Group</t>
+  </si>
+  <si>
+    <t>МГТС - акции привилегированные</t>
+  </si>
+  <si>
+    <t>ЭЛ5-Энерго</t>
+  </si>
+  <si>
+    <t>РусАгро</t>
+  </si>
+  <si>
+    <t>VEON</t>
+  </si>
+  <si>
+    <t>НИТЕЛ</t>
+  </si>
+  <si>
+    <t>Белон</t>
   </si>
   <si>
     <t>Детский Мир</t>
   </si>
   <si>
-    <t>Эн+</t>
-  </si>
-  <si>
-    <t>Polymetal</t>
-  </si>
-  <si>
-    <t>Нижнекамскнефтехим (привилегированные)</t>
-  </si>
-  <si>
-    <t>Яковлев</t>
-  </si>
-  <si>
-    <t>МРСК Волги</t>
-  </si>
-  <si>
-    <t>ВСМПО-АВИСМА</t>
-  </si>
-  <si>
-    <t>Объединенная авиастроительная корпорация</t>
-  </si>
-  <si>
-    <t>Группа ЛСР</t>
-  </si>
-  <si>
-    <t>ВК</t>
-  </si>
-  <si>
-    <t>Таттелеком</t>
-  </si>
-  <si>
-    <t>Центральный Телеграф</t>
-  </si>
-  <si>
-    <t>Магнит</t>
-  </si>
-  <si>
-    <t>СОЛЛЕРС</t>
-  </si>
-  <si>
-    <t>СПБ Биржа</t>
-  </si>
-  <si>
-    <t>Etalon Group PLC ГДР</t>
-  </si>
-  <si>
-    <t>Ростелеком - Привилегированные акции</t>
-  </si>
-  <si>
-    <t>United medical group</t>
-  </si>
-  <si>
-    <t>ПАО «КАЗАНЬОРГСИНТЕЗ» - акции привилегированные</t>
-  </si>
-  <si>
-    <t>Whoosh</t>
-  </si>
-  <si>
-    <t>КАМАЗ</t>
-  </si>
-  <si>
-    <t>ПАО «КАЗАНЬОРГСИНТЕЗ»</t>
-  </si>
-  <si>
-    <t>Fix Price Group</t>
-  </si>
-  <si>
-    <t>Южуралзолото ГК</t>
-  </si>
-  <si>
-    <t>ФосАгро</t>
-  </si>
-  <si>
-    <t>HENDERSON</t>
-  </si>
-  <si>
-    <t>HeadHunter Group PLC</t>
-  </si>
-  <si>
-    <t>Лензолото</t>
-  </si>
-  <si>
-    <t>МГТС - акции привилегированные</t>
-  </si>
-  <si>
-    <t>ЭЛ5-Энерго</t>
-  </si>
-  <si>
-    <t>Селигдар</t>
-  </si>
-  <si>
-    <t>РусАгро</t>
-  </si>
-  <si>
-    <t>Татнефть - привилегированные акции</t>
-  </si>
-  <si>
-    <t>VEON</t>
-  </si>
-  <si>
-    <t>Электроцинк</t>
-  </si>
-  <si>
-    <t>Белон</t>
-  </si>
-  <si>
-    <t>ЧЗПСН</t>
-  </si>
-  <si>
-    <t>Магнитогорский металлургический комбинат</t>
-  </si>
-  <si>
-    <t>Банк ВТБ</t>
+    <t>Городские Инновационные Технологии</t>
   </si>
   <si>
     <t>ГК Самолет</t>
@@ -1036,18 +1339,15 @@
     <t>Циан АДР</t>
   </si>
   <si>
-    <t>КарМани</t>
-  </si>
-  <si>
-    <t>РУСАЛ</t>
-  </si>
-  <si>
-    <t>НКХП</t>
+    <t>Обувь России</t>
   </si>
   <si>
     <t>Сбер Банк</t>
   </si>
   <si>
+    <t>РБК</t>
+  </si>
+  <si>
     <t>Генетико</t>
   </si>
   <si>
@@ -1060,27 +1360,9 @@
     <t>М.видео</t>
   </si>
   <si>
-    <t>Башнефть - привилегированные акции</t>
-  </si>
-  <si>
-    <t>O'Key Group SA</t>
-  </si>
-  <si>
-    <t>АЛРОСА</t>
-  </si>
-  <si>
-    <t>Россети Центр и Приволжье</t>
-  </si>
-  <si>
-    <t>Совкомфлот</t>
-  </si>
-  <si>
     <t>Пермэнергосбыт - акции привилегированные</t>
   </si>
   <si>
-    <t>Татнефть</t>
-  </si>
-  <si>
     <t>X5 RetailGroup ГДР</t>
   </si>
   <si>
@@ -1090,177 +1372,114 @@
     <t>Мечел</t>
   </si>
   <si>
-    <t>Артген</t>
-  </si>
-  <si>
-    <t>ОВК</t>
-  </si>
-  <si>
     <t>Акрон</t>
   </si>
   <si>
     <t>Газпром</t>
   </si>
   <si>
-    <t>ДЭК</t>
-  </si>
-  <si>
     <t>Сбер Банк - привилегированные акции</t>
   </si>
   <si>
-    <t>Ростелеком</t>
-  </si>
-  <si>
     <t>Лента</t>
   </si>
   <si>
+    <t>Банк Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Группа Астра</t>
+  </si>
+  <si>
+    <t>РКК Энергия им.С.П.Королева</t>
+  </si>
+  <si>
+    <t>Ленэнерго</t>
+  </si>
+  <si>
+    <t>Ренессанс Страхование</t>
+  </si>
+  <si>
+    <t>Россети Центр</t>
+  </si>
+  <si>
+    <t>Positive Technologies</t>
+  </si>
+  <si>
+    <t>Красный Октябрь</t>
+  </si>
+  <si>
+    <t>КуйбышевАзот</t>
+  </si>
+  <si>
+    <t>Газпром нефть</t>
+  </si>
+  <si>
+    <t>ЯТЭК</t>
+  </si>
+  <si>
+    <t>ТГК-2</t>
+  </si>
+  <si>
+    <t>Калужская сбытовая компания</t>
+  </si>
+  <si>
+    <t>ЧМК</t>
+  </si>
+  <si>
+    <t>РуссНефть</t>
+  </si>
+  <si>
+    <t>Россети Северо-Запад</t>
+  </si>
+  <si>
+    <t>Аптечная сеть 36,6</t>
+  </si>
+  <si>
+    <t>РусГидро</t>
+  </si>
+  <si>
+    <t>НЛМК</t>
+  </si>
+  <si>
+    <t>Novabev Group</t>
+  </si>
+  <si>
+    <t>Лензолото - привилегированные акции</t>
+  </si>
+  <si>
+    <t>Яндекс</t>
+  </si>
+  <si>
+    <t>ЭсЭфАй</t>
+  </si>
+  <si>
+    <t>ДВМП</t>
+  </si>
+  <si>
+    <t>Распадская</t>
+  </si>
+  <si>
+    <t>Новошип - привилегированные акции</t>
+  </si>
+  <si>
+    <t>Сегежа</t>
+  </si>
+  <si>
+    <t>Ленэнерго - акции привилегированные</t>
+  </si>
+  <si>
+    <t>Норильский никель</t>
+  </si>
+  <si>
     <t>Фармсинтез</t>
   </si>
   <si>
-    <t>Банк Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>МТС</t>
-  </si>
-  <si>
-    <t>Астра</t>
-  </si>
-  <si>
-    <t>ТГК-14</t>
-  </si>
-  <si>
-    <t>Транснефть - привилегированные акции</t>
-  </si>
-  <si>
-    <t>РКК Энергия им.С.П.Королева</t>
-  </si>
-  <si>
-    <t>Ленэнерго</t>
-  </si>
-  <si>
-    <t>Ренессанс Страхование</t>
-  </si>
-  <si>
-    <t>Россети Центр</t>
-  </si>
-  <si>
-    <t>Positive Technologies</t>
-  </si>
-  <si>
-    <t>ФСК Россети</t>
-  </si>
-  <si>
-    <t>Красный Октябрь</t>
-  </si>
-  <si>
-    <t>КуйбышевАзот</t>
-  </si>
-  <si>
-    <t>Пермэнергосбыт</t>
-  </si>
-  <si>
-    <t>Газпром нефть</t>
-  </si>
-  <si>
-    <t>ЯТЭК</t>
-  </si>
-  <si>
-    <t>ТГК-2</t>
-  </si>
-  <si>
-    <t>Калужская сбытовая компания</t>
-  </si>
-  <si>
-    <t>ЧМК</t>
-  </si>
-  <si>
-    <t>РуссНефть</t>
-  </si>
-  <si>
-    <t>Россети Московский регион</t>
-  </si>
-  <si>
-    <t>Россети Северо-Запад</t>
-  </si>
-  <si>
-    <t>Аптечная сеть 36,6</t>
-  </si>
-  <si>
-    <t>Интер РАО ЕЭС</t>
-  </si>
-  <si>
-    <t>РусГидро</t>
-  </si>
-  <si>
-    <t>Наука-Связь</t>
-  </si>
-  <si>
-    <t>НЛМК</t>
-  </si>
-  <si>
-    <t>Novabev Group</t>
-  </si>
-  <si>
-    <t>Группа Черкизово</t>
-  </si>
-  <si>
-    <t>Лензолото - привилегированные акции</t>
-  </si>
-  <si>
-    <t>TCS Group</t>
-  </si>
-  <si>
-    <t>Сургутнефтегаз - привилегированные акции</t>
-  </si>
-  <si>
-    <t>Яндекс</t>
-  </si>
-  <si>
-    <t>ЭсЭфАй</t>
-  </si>
-  <si>
-    <t>ДВМП</t>
-  </si>
-  <si>
-    <t>Распадская</t>
-  </si>
-  <si>
-    <t>НОВАТЭК</t>
-  </si>
-  <si>
-    <t>ЮУНК</t>
-  </si>
-  <si>
-    <t>Нижнекамскнефтехим</t>
-  </si>
-  <si>
-    <t>ИНАРКТИКА</t>
-  </si>
-  <si>
-    <t>ТНС энерго Воронеж</t>
-  </si>
-  <si>
-    <t>Сегежа</t>
-  </si>
-  <si>
-    <t>Ленэнерго - акции привилегированные</t>
-  </si>
-  <si>
-    <t>Норильский никель</t>
-  </si>
-  <si>
-    <t>Московская Биржа</t>
-  </si>
-  <si>
     <t>Юнипро</t>
   </si>
   <si>
     <t>МРСК Сибири</t>
   </si>
   <si>
-    <t>Русолово</t>
-  </si>
-  <si>
     <t>Мосэнерго</t>
   </si>
   <si>
@@ -1270,19 +1489,19 @@
     <t>Полюс</t>
   </si>
   <si>
-    <t>Ozon Holdings PLC</t>
-  </si>
-  <si>
     <t>ЛУКОЙЛ</t>
   </si>
   <si>
-    <t>Вторая генерирующая компания оптового рынка электроэнергии</t>
-  </si>
-  <si>
-    <t>Globaltrans Investment PLC</t>
-  </si>
-  <si>
-    <t>КуйбышевАзот - Акции привилегированные</t>
+    <t>Делимобиль</t>
+  </si>
+  <si>
+    <t>Мосгорломбард</t>
+  </si>
+  <si>
+    <t>ЛК Европлан ао01</t>
+  </si>
+  <si>
+    <t>Удмуртнефть</t>
   </si>
   <si>
     <t>НМТП</t>
@@ -1291,52 +1510,13 @@
     <t>ТГК-1</t>
   </si>
   <si>
-    <t>Сургутнефтегаз</t>
-  </si>
-  <si>
-    <t>МКБ</t>
-  </si>
-  <si>
-    <t>Ашинский метзавод</t>
-  </si>
-  <si>
-    <t>ТГК-2 - акции привилегированные</t>
-  </si>
-  <si>
-    <t>АбрауДюрсо</t>
-  </si>
-  <si>
     <t>Центральный Телеграф - акции привилегированные</t>
   </si>
   <si>
-    <t>ПИК</t>
-  </si>
-  <si>
-    <t>Роснефть</t>
-  </si>
-  <si>
-    <t>ЕвроТранс</t>
-  </si>
-  <si>
     <t>Мечел - Привилегированные акции</t>
   </si>
   <si>
-    <t>Трубная Металлургическая Компания</t>
-  </si>
-  <si>
-    <t>Софтлайн</t>
-  </si>
-  <si>
-    <t>МРСК Урала</t>
-  </si>
-  <si>
     <t>МРСК Юга</t>
-  </si>
-  <si>
-    <t>Саратовский НПЗ - акции привилегированные</t>
-  </si>
-  <si>
-    <t>Северсталь</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1728,13 +1908,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -1743,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1751,13 +1931,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1766,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>200000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1774,10 +1954,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1786,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>100000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1797,22 +1977,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1820,22 +2000,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>50000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1843,22 +2023,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="D7">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>50000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1866,22 +2046,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1889,13 +2069,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1904,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>500000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1912,13 +2092,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1927,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>200000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1935,10 +2115,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1950,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>200000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1958,13 +2138,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1973,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>500000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1981,13 +2161,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1996,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2004,22 +2184,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>500000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2027,13 +2207,13 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -2042,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>500000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2050,13 +2230,13 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -2065,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>100000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2073,22 +2253,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2096,22 +2276,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2119,22 +2299,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>100000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2142,22 +2322,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>10</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2165,16 +2345,16 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2188,13 +2368,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -2211,22 +2391,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2234,13 +2414,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2249,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>100000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2257,22 +2437,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="D25">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>100000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2280,22 +2460,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2303,13 +2483,13 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2318,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>100000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2326,22 +2506,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2349,22 +2529,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2372,10 +2552,10 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2384,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2395,13 +2575,13 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="D31">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -2410,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>200000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2418,16 +2598,16 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2441,13 +2621,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -2456,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>200000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2464,13 +2644,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -2479,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>100000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2487,22 +2667,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>50000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2510,10 +2690,10 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2533,13 +2713,13 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -2548,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>5000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2556,13 +2736,13 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -2571,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>2000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2579,22 +2759,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>5000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2602,22 +2782,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="D40">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>5000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2625,13 +2805,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -2640,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>500000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2648,13 +2828,13 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -2663,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>500000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2671,22 +2851,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>10000000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2694,10 +2874,10 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2709,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>200000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2717,22 +2897,22 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>500000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2740,22 +2920,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2763,10 +2943,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C47" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -2778,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>500000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2786,16 +2966,16 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C48" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2809,13 +2989,13 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C49" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -2824,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2832,13 +3012,13 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C50" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -2847,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>100000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2855,10 +3035,10 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -2870,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>50000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2878,22 +3058,22 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>100000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2901,13 +3081,13 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -2916,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>500000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2924,22 +3104,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>10000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2947,22 +3127,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <v>10</v>
       </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
       <c r="G55">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2970,13 +3150,13 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C56" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="D56">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -2985,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>100000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2993,13 +3173,13 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -3008,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>10000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3016,10 +3196,10 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -3031,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>200000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3039,13 +3219,13 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C59" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -3054,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3062,13 +3242,13 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C60" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -3077,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>500000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3085,22 +3265,22 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C61" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>50000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3108,13 +3288,13 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C62" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -3123,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>10000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3131,13 +3311,13 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C63" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -3146,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3154,10 +3334,10 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3169,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>100000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3177,22 +3357,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C65" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3200,13 +3380,13 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -3215,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3223,16 +3403,16 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C67" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="D67">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3246,13 +3426,13 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C68" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -3261,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3269,22 +3449,22 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C69" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>10000000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3292,22 +3472,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C70" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>500000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3315,13 +3495,13 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="D71">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -3330,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>5000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3338,22 +3518,22 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3361,16 +3541,16 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3384,22 +3564,22 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C74" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3407,22 +3587,22 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="D75">
-        <v>1000000</v>
+        <v>10</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>10000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3430,22 +3610,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C76" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3453,10 +3633,10 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C77" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3465,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3476,13 +3656,13 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="D78">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -3491,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>10000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3499,13 +3679,13 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C79" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
@@ -3514,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>20000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3522,22 +3702,22 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C80" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="D80">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>200000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3545,13 +3725,13 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -3560,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>200000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3568,22 +3748,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C82" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="D82">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>20000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3591,22 +3771,22 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C83" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3614,13 +3794,13 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C84" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
@@ -3629,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>200000000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3637,22 +3817,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C85" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3660,22 +3840,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C86" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>50000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3683,22 +3863,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C87" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3706,13 +3886,13 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C88" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="D88">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -3721,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>5000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3729,13 +3909,13 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="D89">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
@@ -3744,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>10000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3752,22 +3932,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3775,13 +3955,13 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C91" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -3798,22 +3978,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C92" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="D92">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>500000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3821,13 +4001,13 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C93" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="D93">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -3836,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>50000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3844,22 +4024,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C94" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3867,22 +4047,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
+        <v>430</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>500000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3890,13 +4070,13 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C96" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="D96">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
@@ -3905,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>500000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3913,22 +4093,22 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="D97">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>100000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3936,13 +4116,13 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C98" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -3951,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>500000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3959,13 +4139,13 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C99" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
@@ -3974,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3982,22 +4162,22 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C100" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4005,10 +4185,10 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C101" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -4020,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>500000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4028,22 +4208,22 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C102" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4051,16 +4231,16 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C103" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4074,13 +4254,13 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C104" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="D104">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E104" t="b">
         <v>1</v>
@@ -4089,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4097,10 +4277,10 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="C105" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -4120,10 +4300,10 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C106" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -4135,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>200000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4143,13 +4323,13 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C107" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="D107">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E107" t="b">
         <v>1</v>
@@ -4166,22 +4346,22 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C108" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>50000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4189,22 +4369,22 @@
         <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C109" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>200000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4212,22 +4392,22 @@
         <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C110" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4235,22 +4415,22 @@
         <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C111" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="D111">
         <v>10</v>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4258,10 +4438,10 @@
         <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C112" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -4273,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>500000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4281,10 +4461,10 @@
         <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="D113">
         <v>10</v>
@@ -4304,13 +4484,13 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="D114">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E114" t="b">
         <v>1</v>
@@ -4319,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>1000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4327,16 +4507,16 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C115" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="D115">
         <v>10</v>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4350,10 +4530,10 @@
         <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C116" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4362,10 +4542,10 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4373,22 +4553,22 @@
         <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C117" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4396,13 +4576,13 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C118" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="D118">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E118" t="b">
         <v>1</v>
@@ -4411,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4419,22 +4599,22 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C119" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="D119">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4442,22 +4622,22 @@
         <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C120" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="D120">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>200000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4465,22 +4645,22 @@
         <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C121" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="D121">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4488,13 +4668,13 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C122" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="D122">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E122" t="b">
         <v>1</v>
@@ -4503,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>1000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4511,22 +4691,22 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C123" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G123">
-        <v>500000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4534,13 +4714,13 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C124" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
@@ -4549,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>500000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4557,22 +4737,22 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C125" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
-        <v>500000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4580,10 +4760,10 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C126" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="D126">
         <v>1000</v>
@@ -4595,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4603,22 +4783,22 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C127" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>50000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4626,10 +4806,10 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C128" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="D128">
         <v>10</v>
@@ -4638,10 +4818,10 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>500000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4649,22 +4829,22 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="D129">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>5000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4672,13 +4852,13 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C130" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="D130">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -4687,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>2000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4695,22 +4875,22 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C131" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="D131">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>5000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4718,22 +4898,22 @@
         <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C132" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="D132">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>1000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4741,16 +4921,16 @@
         <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C133" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="D133">
         <v>100</v>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -4764,22 +4944,22 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C134" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="D134">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G134">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4787,13 +4967,13 @@
         <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C135" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E135" t="b">
         <v>1</v>
@@ -4802,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4810,22 +4990,22 @@
         <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C136" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="D136">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>20000000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4833,22 +5013,22 @@
         <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C137" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>100000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4856,22 +5036,22 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C138" t="s">
-        <v>432</v>
+        <v>308</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>50000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4879,22 +5059,22 @@
         <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C139" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>50000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4902,10 +5082,10 @@
         <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C140" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D140">
         <v>10</v>
@@ -4917,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4925,22 +5105,22 @@
         <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="C141" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4948,22 +5128,22 @@
         <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C142" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="D142">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G142">
-        <v>20000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4971,22 +5151,22 @@
         <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="C143" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="D143">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>200000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4994,13 +5174,13 @@
         <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C144" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="D144">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
@@ -5009,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>50000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5017,22 +5197,22 @@
         <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C145" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5040,13 +5220,13 @@
         <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C146" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E146" t="b">
         <v>1</v>
@@ -5055,7 +5235,467 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>200000000</v>
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" t="s">
+        <v>481</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>318</v>
+      </c>
+      <c r="C148" t="s">
+        <v>482</v>
+      </c>
+      <c r="D148">
+        <v>100</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s">
+        <v>319</v>
+      </c>
+      <c r="C149" t="s">
+        <v>483</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s">
+        <v>320</v>
+      </c>
+      <c r="C150" t="s">
+        <v>484</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" t="s">
+        <v>321</v>
+      </c>
+      <c r="C151" t="s">
+        <v>485</v>
+      </c>
+      <c r="D151">
+        <v>100</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" t="s">
+        <v>486</v>
+      </c>
+      <c r="D152">
+        <v>1000</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153" t="s">
+        <v>487</v>
+      </c>
+      <c r="D153">
+        <v>10000</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>324</v>
+      </c>
+      <c r="C154" t="s">
+        <v>488</v>
+      </c>
+      <c r="D154">
+        <v>1000</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" t="s">
+        <v>489</v>
+      </c>
+      <c r="D155">
+        <v>100</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" t="s">
+        <v>326</v>
+      </c>
+      <c r="C156" t="s">
+        <v>490</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s">
+        <v>327</v>
+      </c>
+      <c r="C157" t="s">
+        <v>491</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" t="s">
+        <v>328</v>
+      </c>
+      <c r="C158" t="s">
+        <v>492</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" t="s">
+        <v>329</v>
+      </c>
+      <c r="C159" t="s">
+        <v>493</v>
+      </c>
+      <c r="D159">
+        <v>100</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" t="s">
+        <v>330</v>
+      </c>
+      <c r="C160" t="s">
+        <v>494</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" t="s">
+        <v>331</v>
+      </c>
+      <c r="C161" t="s">
+        <v>495</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" t="s">
+        <v>332</v>
+      </c>
+      <c r="C162" t="s">
+        <v>496</v>
+      </c>
+      <c r="D162">
+        <v>100</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" t="s">
+        <v>333</v>
+      </c>
+      <c r="C163" t="s">
+        <v>497</v>
+      </c>
+      <c r="D163">
+        <v>100000</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" t="s">
+        <v>498</v>
+      </c>
+      <c r="D164">
+        <v>100</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="s">
+        <v>335</v>
+      </c>
+      <c r="C165" t="s">
+        <v>499</v>
+      </c>
+      <c r="D165">
+        <v>10</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" t="s">
+        <v>336</v>
+      </c>
+      <c r="C166" t="s">
+        <v>500</v>
+      </c>
+      <c r="D166">
+        <v>10000</v>
+      </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
